--- a/Layia Dry Mass.xlsx
+++ b/Layia Dry Mass.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariozuliani/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariozuliani/Desktop/Greenhouse experiment data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="7">
   <si>
     <t>Table.Number</t>
   </si>
@@ -362,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E153"/>
+  <dimension ref="A1:E211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="H148" sqref="H148"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="E176" sqref="E176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2783,10 +2783,10 @@
         <v>3</v>
       </c>
       <c r="D142">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
@@ -2800,10 +2800,10 @@
         <v>3</v>
       </c>
       <c r="D143">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
@@ -2817,10 +2817,10 @@
         <v>3</v>
       </c>
       <c r="D144">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>0.27600000000000002</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
@@ -2834,10 +2834,10 @@
         <v>3</v>
       </c>
       <c r="D145">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>0.253</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
@@ -2851,10 +2851,10 @@
         <v>3</v>
       </c>
       <c r="D146">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>0.16800000000000001</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
@@ -2868,10 +2868,10 @@
         <v>3</v>
       </c>
       <c r="D147">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="E147">
-        <v>3.4000000000000002E-2</v>
+        <v>0.13700000000000001</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
@@ -2885,10 +2885,10 @@
         <v>3</v>
       </c>
       <c r="D148">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="E148">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
@@ -2902,10 +2902,10 @@
         <v>3</v>
       </c>
       <c r="D149">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="E149">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
@@ -2919,10 +2919,10 @@
         <v>3</v>
       </c>
       <c r="D150">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="E150">
-        <v>1.2999999999999999E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
@@ -2936,10 +2936,10 @@
         <v>3</v>
       </c>
       <c r="D151">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E151">
-        <v>6.0999999999999999E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
@@ -2953,10 +2953,10 @@
         <v>3</v>
       </c>
       <c r="D152">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>0.158</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
@@ -2970,14 +2970,1000 @@
         <v>3</v>
       </c>
       <c r="D153">
+        <v>12</v>
+      </c>
+      <c r="E153">
+        <v>0.187</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>5</v>
+      </c>
+      <c r="B154" t="s">
+        <v>6</v>
+      </c>
+      <c r="C154">
+        <v>3</v>
+      </c>
+      <c r="D154">
+        <v>13</v>
+      </c>
+      <c r="E154">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>5</v>
+      </c>
+      <c r="B155" t="s">
+        <v>6</v>
+      </c>
+      <c r="C155">
+        <v>3</v>
+      </c>
+      <c r="D155">
+        <v>14</v>
+      </c>
+      <c r="E155">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>5</v>
+      </c>
+      <c r="B156" t="s">
+        <v>6</v>
+      </c>
+      <c r="C156">
+        <v>3</v>
+      </c>
+      <c r="D156">
+        <v>15</v>
+      </c>
+      <c r="E156">
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>5</v>
+      </c>
+      <c r="B157" t="s">
+        <v>6</v>
+      </c>
+      <c r="C157">
+        <v>3</v>
+      </c>
+      <c r="D157">
+        <v>16</v>
+      </c>
+      <c r="E157">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>5</v>
+      </c>
+      <c r="B158" t="s">
+        <v>6</v>
+      </c>
+      <c r="C158">
+        <v>3</v>
+      </c>
+      <c r="D158">
+        <v>17</v>
+      </c>
+      <c r="E158">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>5</v>
+      </c>
+      <c r="B159" t="s">
+        <v>6</v>
+      </c>
+      <c r="C159">
+        <v>3</v>
+      </c>
+      <c r="D159">
+        <v>18</v>
+      </c>
+      <c r="E159">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>5</v>
+      </c>
+      <c r="B160" t="s">
+        <v>6</v>
+      </c>
+      <c r="C160">
+        <v>3</v>
+      </c>
+      <c r="D160">
+        <v>19</v>
+      </c>
+      <c r="E160">
+        <v>0.11700000000000001</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>5</v>
+      </c>
+      <c r="B161" t="s">
+        <v>6</v>
+      </c>
+      <c r="C161">
+        <v>3</v>
+      </c>
+      <c r="D161">
+        <v>20</v>
+      </c>
+      <c r="E161">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>5</v>
+      </c>
+      <c r="B162" t="s">
+        <v>6</v>
+      </c>
+      <c r="C162">
+        <v>3</v>
+      </c>
+      <c r="D162">
+        <v>21</v>
+      </c>
+      <c r="E162">
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>5</v>
+      </c>
+      <c r="B163" t="s">
+        <v>6</v>
+      </c>
+      <c r="C163">
+        <v>3</v>
+      </c>
+      <c r="D163">
+        <v>22</v>
+      </c>
+      <c r="E163">
+        <v>8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>5</v>
+      </c>
+      <c r="B164" t="s">
+        <v>6</v>
+      </c>
+      <c r="C164">
+        <v>3</v>
+      </c>
+      <c r="D164">
+        <v>23</v>
+      </c>
+      <c r="E164">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>5</v>
+      </c>
+      <c r="B165" t="s">
+        <v>6</v>
+      </c>
+      <c r="C165">
+        <v>3</v>
+      </c>
+      <c r="D165">
+        <v>24</v>
+      </c>
+      <c r="E165">
+        <v>0.28899999999999998</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>5</v>
+      </c>
+      <c r="B166" t="s">
+        <v>6</v>
+      </c>
+      <c r="C166">
+        <v>3</v>
+      </c>
+      <c r="D166">
+        <v>25</v>
+      </c>
+      <c r="E166">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>5</v>
+      </c>
+      <c r="B167" t="s">
+        <v>6</v>
+      </c>
+      <c r="C167">
+        <v>3</v>
+      </c>
+      <c r="D167">
+        <v>26</v>
+      </c>
+      <c r="E167">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>5</v>
+      </c>
+      <c r="B168" t="s">
+        <v>6</v>
+      </c>
+      <c r="C168">
+        <v>3</v>
+      </c>
+      <c r="D168">
+        <v>27</v>
+      </c>
+      <c r="E168">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>5</v>
+      </c>
+      <c r="B169" t="s">
+        <v>6</v>
+      </c>
+      <c r="C169">
+        <v>3</v>
+      </c>
+      <c r="D169">
+        <v>28</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>5</v>
+      </c>
+      <c r="B170" t="s">
+        <v>6</v>
+      </c>
+      <c r="C170">
+        <v>3</v>
+      </c>
+      <c r="D170">
+        <v>29</v>
+      </c>
+      <c r="E170">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>5</v>
+      </c>
+      <c r="B171" t="s">
+        <v>6</v>
+      </c>
+      <c r="C171">
+        <v>3</v>
+      </c>
+      <c r="D171">
+        <v>30</v>
+      </c>
+      <c r="E171">
+        <v>0.439</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>5</v>
+      </c>
+      <c r="B172" t="s">
+        <v>6</v>
+      </c>
+      <c r="C172">
+        <v>3</v>
+      </c>
+      <c r="D172">
+        <v>31</v>
+      </c>
+      <c r="E172">
+        <v>0.26200000000000001</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>5</v>
+      </c>
+      <c r="B173" t="s">
+        <v>6</v>
+      </c>
+      <c r="C173">
+        <v>3</v>
+      </c>
+      <c r="D173">
+        <v>32</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>5</v>
+      </c>
+      <c r="B174" t="s">
+        <v>6</v>
+      </c>
+      <c r="C174">
+        <v>3</v>
+      </c>
+      <c r="D174">
+        <v>33</v>
+      </c>
+      <c r="E174">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>5</v>
+      </c>
+      <c r="B175" t="s">
+        <v>6</v>
+      </c>
+      <c r="C175">
+        <v>3</v>
+      </c>
+      <c r="D175">
+        <v>34</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>5</v>
+      </c>
+      <c r="B176" t="s">
+        <v>6</v>
+      </c>
+      <c r="C176">
+        <v>3</v>
+      </c>
+      <c r="D176">
+        <v>35</v>
+      </c>
+      <c r="E176">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>5</v>
+      </c>
+      <c r="B177" t="s">
+        <v>6</v>
+      </c>
+      <c r="C177">
+        <v>3</v>
+      </c>
+      <c r="D177">
+        <v>36</v>
+      </c>
+      <c r="E177">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>5</v>
+      </c>
+      <c r="B178" t="s">
+        <v>6</v>
+      </c>
+      <c r="C178">
+        <v>3</v>
+      </c>
+      <c r="D178">
+        <v>37</v>
+      </c>
+      <c r="E178">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>5</v>
+      </c>
+      <c r="B179" t="s">
+        <v>6</v>
+      </c>
+      <c r="C179">
+        <v>3</v>
+      </c>
+      <c r="D179">
+        <v>38</v>
+      </c>
+      <c r="E179">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>5</v>
+      </c>
+      <c r="B180" t="s">
+        <v>6</v>
+      </c>
+      <c r="C180">
+        <v>3</v>
+      </c>
+      <c r="D180">
+        <v>39</v>
+      </c>
+      <c r="E180">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>5</v>
+      </c>
+      <c r="B181" t="s">
+        <v>6</v>
+      </c>
+      <c r="C181">
+        <v>3</v>
+      </c>
+      <c r="D181">
+        <v>40</v>
+      </c>
+      <c r="E181">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>5</v>
+      </c>
+      <c r="B182" t="s">
+        <v>6</v>
+      </c>
+      <c r="C182">
+        <v>3</v>
+      </c>
+      <c r="D182">
+        <v>41</v>
+      </c>
+      <c r="E182">
+        <v>0.17100000000000001</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>5</v>
+      </c>
+      <c r="B183" t="s">
+        <v>6</v>
+      </c>
+      <c r="C183">
+        <v>3</v>
+      </c>
+      <c r="D183">
+        <v>42</v>
+      </c>
+      <c r="E183">
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>5</v>
+      </c>
+      <c r="B184" t="s">
+        <v>6</v>
+      </c>
+      <c r="C184">
+        <v>3</v>
+      </c>
+      <c r="D184">
+        <v>43</v>
+      </c>
+      <c r="E184">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>5</v>
+      </c>
+      <c r="B185" t="s">
+        <v>6</v>
+      </c>
+      <c r="C185">
+        <v>3</v>
+      </c>
+      <c r="D185">
+        <v>44</v>
+      </c>
+      <c r="E185">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>5</v>
+      </c>
+      <c r="B186" t="s">
+        <v>6</v>
+      </c>
+      <c r="C186">
+        <v>3</v>
+      </c>
+      <c r="D186">
+        <v>45</v>
+      </c>
+      <c r="E186">
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>5</v>
+      </c>
+      <c r="B187" t="s">
+        <v>6</v>
+      </c>
+      <c r="C187">
+        <v>3</v>
+      </c>
+      <c r="D187">
+        <v>46</v>
+      </c>
+      <c r="E187">
+        <v>0.58699999999999997</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>5</v>
+      </c>
+      <c r="B188" t="s">
+        <v>6</v>
+      </c>
+      <c r="C188">
+        <v>3</v>
+      </c>
+      <c r="D188">
+        <v>47</v>
+      </c>
+      <c r="E188">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>5</v>
+      </c>
+      <c r="B189" t="s">
+        <v>6</v>
+      </c>
+      <c r="C189">
+        <v>3</v>
+      </c>
+      <c r="D189">
+        <v>48</v>
+      </c>
+      <c r="E189">
+        <v>0.14799999999999999</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>5</v>
+      </c>
+      <c r="B190" t="s">
+        <v>6</v>
+      </c>
+      <c r="C190">
+        <v>3</v>
+      </c>
+      <c r="D190">
+        <v>49</v>
+      </c>
+      <c r="E190">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>5</v>
+      </c>
+      <c r="B191" t="s">
+        <v>6</v>
+      </c>
+      <c r="C191">
+        <v>3</v>
+      </c>
+      <c r="D191">
+        <v>50</v>
+      </c>
+      <c r="E191">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>5</v>
+      </c>
+      <c r="B192" t="s">
+        <v>6</v>
+      </c>
+      <c r="C192">
+        <v>3</v>
+      </c>
+      <c r="D192">
+        <v>51</v>
+      </c>
+      <c r="E192">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>5</v>
+      </c>
+      <c r="B193" t="s">
+        <v>6</v>
+      </c>
+      <c r="C193">
+        <v>3</v>
+      </c>
+      <c r="D193">
+        <v>52</v>
+      </c>
+      <c r="E193">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>5</v>
+      </c>
+      <c r="B194" t="s">
+        <v>6</v>
+      </c>
+      <c r="C194">
+        <v>3</v>
+      </c>
+      <c r="D194">
+        <v>53</v>
+      </c>
+      <c r="E194">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>5</v>
+      </c>
+      <c r="B195" t="s">
+        <v>6</v>
+      </c>
+      <c r="C195">
+        <v>3</v>
+      </c>
+      <c r="D195">
+        <v>54</v>
+      </c>
+      <c r="E195">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>5</v>
+      </c>
+      <c r="B196" t="s">
+        <v>6</v>
+      </c>
+      <c r="C196">
+        <v>3</v>
+      </c>
+      <c r="D196">
+        <v>55</v>
+      </c>
+      <c r="E196">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>5</v>
+      </c>
+      <c r="B197" t="s">
+        <v>6</v>
+      </c>
+      <c r="C197">
+        <v>3</v>
+      </c>
+      <c r="D197">
+        <v>56</v>
+      </c>
+      <c r="E197">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>5</v>
+      </c>
+      <c r="B198" t="s">
+        <v>6</v>
+      </c>
+      <c r="C198">
+        <v>3</v>
+      </c>
+      <c r="D198">
+        <v>57</v>
+      </c>
+      <c r="E198">
+        <v>0.19600000000000001</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>5</v>
+      </c>
+      <c r="B199" t="s">
+        <v>6</v>
+      </c>
+      <c r="C199">
+        <v>3</v>
+      </c>
+      <c r="D199">
+        <v>58</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>5</v>
+      </c>
+      <c r="B200" t="s">
+        <v>6</v>
+      </c>
+      <c r="C200">
+        <v>3</v>
+      </c>
+      <c r="D200">
         <v>59</v>
       </c>
-      <c r="E153">
+      <c r="E200">
         <v>0</v>
       </c>
     </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>5</v>
+      </c>
+      <c r="B201" t="s">
+        <v>6</v>
+      </c>
+      <c r="C201">
+        <v>3</v>
+      </c>
+      <c r="D201">
+        <v>60</v>
+      </c>
+      <c r="E201">
+        <v>0.312</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>5</v>
+      </c>
+      <c r="B202" t="s">
+        <v>6</v>
+      </c>
+      <c r="C202">
+        <v>3</v>
+      </c>
+      <c r="D202">
+        <v>61</v>
+      </c>
+      <c r="E202">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>5</v>
+      </c>
+      <c r="B203" t="s">
+        <v>6</v>
+      </c>
+      <c r="C203">
+        <v>3</v>
+      </c>
+      <c r="D203">
+        <v>62</v>
+      </c>
+      <c r="E203">
+        <v>0.30499999999999999</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>5</v>
+      </c>
+      <c r="B204" t="s">
+        <v>6</v>
+      </c>
+      <c r="C204">
+        <v>3</v>
+      </c>
+      <c r="D204">
+        <v>63</v>
+      </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>5</v>
+      </c>
+      <c r="B205" t="s">
+        <v>6</v>
+      </c>
+      <c r="C205">
+        <v>3</v>
+      </c>
+      <c r="D205">
+        <v>64</v>
+      </c>
+      <c r="E205">
+        <v>0.192</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>5</v>
+      </c>
+      <c r="B206" t="s">
+        <v>6</v>
+      </c>
+      <c r="C206">
+        <v>3</v>
+      </c>
+      <c r="D206">
+        <v>65</v>
+      </c>
+      <c r="E206">
+        <v>0.42099999999999999</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>5</v>
+      </c>
+      <c r="B207" t="s">
+        <v>6</v>
+      </c>
+      <c r="C207">
+        <v>3</v>
+      </c>
+      <c r="D207">
+        <v>66</v>
+      </c>
+      <c r="E207">
+        <v>0.45600000000000002</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>5</v>
+      </c>
+      <c r="B208" t="s">
+        <v>6</v>
+      </c>
+      <c r="C208">
+        <v>3</v>
+      </c>
+      <c r="D208">
+        <v>67</v>
+      </c>
+      <c r="E208">
+        <v>0.36799999999999999</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>5</v>
+      </c>
+      <c r="B209" t="s">
+        <v>6</v>
+      </c>
+      <c r="C209">
+        <v>3</v>
+      </c>
+      <c r="D209">
+        <v>68</v>
+      </c>
+      <c r="E209">
+        <v>0.51700000000000002</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>5</v>
+      </c>
+      <c r="B210" t="s">
+        <v>6</v>
+      </c>
+      <c r="C210">
+        <v>3</v>
+      </c>
+      <c r="D210">
+        <v>69</v>
+      </c>
+      <c r="E210">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>5</v>
+      </c>
+      <c r="B211" t="s">
+        <v>6</v>
+      </c>
+      <c r="C211">
+        <v>3</v>
+      </c>
+      <c r="D211">
+        <v>70</v>
+      </c>
+      <c r="E211">
+        <v>0.14099999999999999</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:E153">
+  <sortState ref="A2:E212">
     <sortCondition ref="C1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
